--- a/settings.xlsx
+++ b/settings.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanvlasov/code/kw/pereprava_bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FF6C15-3B98-954C-B040-A401BCFE338B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1DD7CC-4794-904C-BB8B-B2B903611FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Переправы" sheetId="1" r:id="rId1"/>
     <sheet name="Утреннее сообщение" sheetId="3" r:id="rId2"/>
     <sheet name="Статические сообщения" sheetId="4" r:id="rId3"/>
+    <sheet name="Сообщения" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Название</t>
   </si>
@@ -88,6 +89,48 @@
   </si>
   <si>
     <t>На переправе {имя переправы} сегодня {число паромов} паромой</t>
+  </si>
+  <si>
+    <t>Вас приветствует официальный бот Переправы Салехард - Лабытнанги. Выберите необходимый пункт \"Меню\" или отправьте  команду /menu всли меню не отобразилось</t>
+  </si>
+  <si>
+    <t>Стартовое сообщение пользователя</t>
+  </si>
+  <si>
+    <t>Стартовое сообщение модератора</t>
+  </si>
+  <si>
+    <t>Вас приветствует официальный бот Переправы Салехард - Лабытнанги. Выберите необходимый пункт \"Меню\" или отправьте  команду /menu всли меню не отобразилось:</t>
+  </si>
+  <si>
+    <t>Выберите тип сообщения:</t>
+  </si>
+  <si>
+    <t>Введите текст вашего обращения.</t>
+  </si>
+  <si>
+    <t>Обращение ввод</t>
+  </si>
+  <si>
+    <t>Ваше обращение принято.</t>
+  </si>
+  <si>
+    <t>Обращение принято</t>
+  </si>
+  <si>
+    <t>start_user</t>
+  </si>
+  <si>
+    <t>start_moderator</t>
+  </si>
+  <si>
+    <t>message_types</t>
+  </si>
+  <si>
+    <t>appeal_message</t>
+  </si>
+  <si>
+    <t>appeal_message_success</t>
   </si>
 </sst>
 </file>
@@ -524,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -626,4 +669,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2200173E-5E00-5A4C-9D98-0B12B6FC3183}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" customWidth="1"/>
+    <col min="3" max="3" width="158.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>